--- a/models_hyperparameters.xlsx
+++ b/models_hyperparameters.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\idair-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ED44B2-7B3E-4A51-A955-C735E8F0CEB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5CB406-F7ED-4157-AEBB-05860443142B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="lasso" sheetId="2" r:id="rId1"/>
-    <sheet name="ridge" sheetId="3" r:id="rId2"/>
-    <sheet name="enet" sheetId="4" r:id="rId3"/>
-    <sheet name="rf" sheetId="5" r:id="rId4"/>
-    <sheet name="gbm" sheetId="6" r:id="rId5"/>
-    <sheet name="xgbm" sheetId="7" r:id="rId6"/>
-    <sheet name="pls" sheetId="8" r:id="rId7"/>
-    <sheet name="knn" sheetId="9" r:id="rId8"/>
-    <sheet name="svm" sheetId="10" r:id="rId9"/>
-    <sheet name="lda" sheetId="11" r:id="rId10"/>
-    <sheet name="mda" sheetId="12" r:id="rId11"/>
-    <sheet name="nb" sheetId="13" r:id="rId12"/>
-    <sheet name="bartm" sheetId="14" r:id="rId13"/>
-    <sheet name="mlp" sheetId="15" r:id="rId14"/>
+    <sheet name="default" sheetId="16" r:id="rId1"/>
+    <sheet name="lasso" sheetId="2" r:id="rId2"/>
+    <sheet name="ridge" sheetId="3" r:id="rId3"/>
+    <sheet name="enet" sheetId="4" r:id="rId4"/>
+    <sheet name="rf" sheetId="5" r:id="rId5"/>
+    <sheet name="gbm" sheetId="6" r:id="rId6"/>
+    <sheet name="xgbm" sheetId="7" r:id="rId7"/>
+    <sheet name="pls" sheetId="8" r:id="rId8"/>
+    <sheet name="knn" sheetId="9" r:id="rId9"/>
+    <sheet name="svm" sheetId="10" r:id="rId10"/>
+    <sheet name="lda" sheetId="11" r:id="rId11"/>
+    <sheet name="mda" sheetId="12" r:id="rId12"/>
+    <sheet name="nb" sheetId="13" r:id="rId13"/>
+    <sheet name="bartm" sheetId="14" r:id="rId14"/>
+    <sheet name="mlp" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>alpha</t>
   </si>
@@ -221,6 +222,9 @@
   </si>
   <si>
     <t>[0, 0.1, 0.01, 0.001, 0.0001, 0.00001, 0.000001]</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -571,41 +575,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98552970-AF37-404F-AEE1-1186678AA22C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default params" prompt="Whether to use default model params" sqref="A2" xr:uid="{24B4A33C-A2E5-4442-8CCE-8E4617E15BCA}">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -618,7 +643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -653,7 +678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -694,7 +719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -749,7 +774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -799,6 +824,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -828,7 +888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -863,11 +923,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
@@ -919,7 +979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -968,7 +1028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1048,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1074,7 +1134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1098,30 +1158,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/models_hyperparameters.xlsx
+++ b/models_hyperparameters.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\idair-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5CB406-F7ED-4157-AEBB-05860443142B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281D2510-0DC0-4FE2-AF4E-D3C2E50B13A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="16" r:id="rId1"/>
-    <sheet name="lasso" sheetId="2" r:id="rId2"/>
-    <sheet name="ridge" sheetId="3" r:id="rId3"/>
-    <sheet name="enet" sheetId="4" r:id="rId4"/>
-    <sheet name="rf" sheetId="5" r:id="rId5"/>
-    <sheet name="gbm" sheetId="6" r:id="rId6"/>
-    <sheet name="xgbm" sheetId="7" r:id="rId7"/>
-    <sheet name="pls" sheetId="8" r:id="rId8"/>
-    <sheet name="knn" sheetId="9" r:id="rId9"/>
-    <sheet name="svm" sheetId="10" r:id="rId10"/>
-    <sheet name="lda" sheetId="11" r:id="rId11"/>
-    <sheet name="mda" sheetId="12" r:id="rId12"/>
-    <sheet name="nb" sheetId="13" r:id="rId13"/>
-    <sheet name="bartm" sheetId="14" r:id="rId14"/>
-    <sheet name="mlp" sheetId="15" r:id="rId15"/>
+    <sheet name="dt" sheetId="17" r:id="rId2"/>
+    <sheet name="lasso" sheetId="2" r:id="rId3"/>
+    <sheet name="ridge" sheetId="3" r:id="rId4"/>
+    <sheet name="enet" sheetId="4" r:id="rId5"/>
+    <sheet name="rf" sheetId="5" r:id="rId6"/>
+    <sheet name="gbm" sheetId="6" r:id="rId7"/>
+    <sheet name="xgbm" sheetId="7" r:id="rId8"/>
+    <sheet name="pls" sheetId="8" r:id="rId9"/>
+    <sheet name="knn" sheetId="9" r:id="rId10"/>
+    <sheet name="svm" sheetId="10" r:id="rId11"/>
+    <sheet name="lda" sheetId="11" r:id="rId12"/>
+    <sheet name="mda" sheetId="12" r:id="rId13"/>
+    <sheet name="nb" sheetId="13" r:id="rId14"/>
+    <sheet name="bartm" sheetId="14" r:id="rId15"/>
+    <sheet name="mlp" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>alpha</t>
   </si>
@@ -225,6 +226,12 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>[0.01, 0.5, 5]</t>
   </si>
 </sst>
 </file>
@@ -578,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98552970-AF37-404F-AEE1-1186678AA22C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -605,18 +612,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -631,6 +638,32 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -643,7 +676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -678,7 +711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -719,7 +752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -774,7 +807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -824,6 +857,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60D6F2-C0F7-4F8A-B7CD-7B03BC089F32}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -858,7 +919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -888,7 +949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -923,12 +984,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -979,7 +1040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1028,7 +1089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1108,7 +1169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1132,30 +1193,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>